--- a/4.Teste/LFS - Roteiro de Teste.xlsx
+++ b/4.Teste/LFS - Roteiro de Teste.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosag\Documents\CONIM_ContractImovel\4.Teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A3E175-11B0-4D90-9ECB-9C27DF72E168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="913" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="AUX" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="CS001" sheetId="3" r:id="rId3"/>
-    <sheet name="CS002" sheetId="26" r:id="rId4"/>
-    <sheet name="CS003" sheetId="29" r:id="rId5"/>
-    <sheet name="CS004" sheetId="30" r:id="rId6"/>
-    <sheet name="CSNF001" sheetId="32" r:id="rId7"/>
-    <sheet name="CSNF002" sheetId="34" r:id="rId8"/>
+    <sheet name="UC1" sheetId="35" r:id="rId3"/>
+    <sheet name="UC2" sheetId="34" r:id="rId4"/>
+    <sheet name="UC3" sheetId="29" r:id="rId5"/>
+    <sheet name="UC4" sheetId="30" r:id="rId6"/>
+    <sheet name="UC5" sheetId="3" r:id="rId7"/>
+    <sheet name="UC6" sheetId="26" r:id="rId8"/>
+    <sheet name="UC7" sheetId="32" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="___xlfn_IFERROR">NA()</definedName>
     <definedName name="__xlfn_IFERROR">NA()</definedName>
     <definedName name="combo_SimNao">AUX!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>&lt;LFS - Locadora de Filmes e Series&gt;</t>
   </si>
@@ -70,24 +70,6 @@
   </si>
   <si>
     <t>Ciclo 3</t>
-  </si>
-  <si>
-    <t>CS001</t>
-  </si>
-  <si>
-    <t>CS002</t>
-  </si>
-  <si>
-    <t>CS003</t>
-  </si>
-  <si>
-    <t>CS004</t>
-  </si>
-  <si>
-    <t>CSNF001</t>
-  </si>
-  <si>
-    <t>CSNF002</t>
   </si>
   <si>
     <t>Totais</t>
@@ -369,13 +351,55 @@
   </si>
   <si>
     <t xml:space="preserve">Filme não existente </t>
+  </si>
+  <si>
+    <t>UC2</t>
+  </si>
+  <si>
+    <t>UC3</t>
+  </si>
+  <si>
+    <t>UC4</t>
+  </si>
+  <si>
+    <t>UC5</t>
+  </si>
+  <si>
+    <t>UC6</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>Gerar Relatorios</t>
+  </si>
+  <si>
+    <t>Visualizar relatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID = 1</t>
+  </si>
+  <si>
+    <t>Exibe corretamente o relatorio</t>
+  </si>
+  <si>
+    <t>Ver relatorio inexistente</t>
+  </si>
+  <si>
+    <t>ID = 62627</t>
+  </si>
+  <si>
+    <t>Exibe que o relatorio não existe</t>
+  </si>
+  <si>
+    <t>UC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1144,20 +1168,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Bom" xfId="1"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Célula de Verificação" xfId="3"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Incorreto" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="7"/>
     <cellStyle name="Nota" xfId="8" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Ruim" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Porcentagem 2" xfId="9"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="11" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Título 5" xfId="13"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1588,14 +1612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1609,8 +1633,8 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:11" ht="18">
+    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="42" t="s">
         <v>0</v>
@@ -1624,14 +1648,14 @@
       <c r="J2" s="42"/>
       <c r="K2" s="43"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1">
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="19" t="s">
         <v>2</v>
@@ -1650,106 +1674,116 @@
       </c>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
       <c r="C5" s="21" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="D5" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="20">
-        <v>2</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="K5" s="26"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="21" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D6" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="20">
-        <v>2</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="K6" s="26"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="21" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
+      <c r="H7" s="20"/>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="21" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D8" s="22">
-        <v>3</v>
-      </c>
-      <c r="F8" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="21" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D9" s="22">
-        <v>3</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
       <c r="H9" s="20"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="21" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D10" s="22">
-        <v>3</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="K10" s="26"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -1758,7 +1792,7 @@
       <c r="H12" s="20"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -1767,7 +1801,7 @@
       <c r="H13" s="20"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -1776,7 +1810,7 @@
       <c r="H14" s="20"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -1785,7 +1819,7 @@
       <c r="H15" s="20"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -1794,7 +1828,7 @@
       <c r="H16" s="20"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -1803,7 +1837,7 @@
       <c r="H17" s="20"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -1812,7 +1846,7 @@
       <c r="H18" s="20"/>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -1821,10 +1855,10 @@
       <c r="H19" s="20"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D20" s="23"/>
       <c r="F20" s="17"/>
@@ -1832,31 +1866,31 @@
       <c r="H20" s="18"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="22">
-        <f>COUNTA(C5:C19)</f>
+        <f>COUNTA(C6:C19)</f>
         <v>6</v>
       </c>
       <c r="D21" s="22">
         <f>SUM(D5:D19)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3">
         <f>SUM(F5:F19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3">
         <f>SUM(G5:G19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
         <f>SUM(H5:H19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -1880,32 +1914,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1917,105 +1951,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:23" ht="18">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="G8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.45" customHeight="1">
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>29</v>
+      <c r="B9" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
@@ -2041,27 +2076,25 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
+      <c r="B10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2080,101 +2113,61 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A11" s="35">
-        <v>3</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="35">
-        <v>4</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="35">
-        <v>5</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="36"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.45">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2183,7 +2176,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2191,15 +2184,6 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2219,15 +2203,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
@@ -2239,92 +2223,92 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:23" ht="17.45">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="G8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A9" s="31">
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="5"/>
@@ -2344,18 +2328,266 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>5</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13">
@@ -2381,99 +2613,87 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A11" s="35">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="35">
-        <v>4</v>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="F12" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="35">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>63</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A14" s="35"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.45">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2482,294 +2702,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6ECDD0-8143-4D57-A78B-7D4A5A5E0FA4}">
-  <dimension ref="A1:W30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.45">
-      <c r="A2" s="45">
-        <v>5</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A10" s="9">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A11" s="9">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="9">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2778,31 +2711,30 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D23" s="38"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D24" s="49"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D25" s="49"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" s="49"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" s="49"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="6">
@@ -2823,15 +2755,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DFFAAE-E691-4756-8A81-993F13346BFC}">
-  <dimension ref="A1:W19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
@@ -2843,86 +2775,86 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:23" ht="17.45">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>5</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="G8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
@@ -2948,18 +2880,18 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="14">
@@ -2969,18 +2901,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>3</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13">
@@ -2990,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="6"/>
@@ -2999,7 +2931,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3008,7 +2940,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3017,7 +2949,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3026,7 +2958,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3035,7 +2967,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3044,8 +2976,6 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25"/>
-    <row r="19" spans="1:7" ht="14.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
@@ -3064,106 +2994,105 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EA4D8E-6972-4566-9E8A-036B7820B808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:23" ht="17.45">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="G8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>89</v>
+      <c r="B9" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
@@ -3189,25 +3118,27 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>93</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3226,20 +3157,20 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>96</v>
+      <c r="B11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="14">
         <v>0</v>
       </c>
@@ -3247,34 +3178,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>4</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>5</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="6"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3283,7 +3242,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3292,7 +3251,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3301,7 +3260,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3310,7 +3269,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3337,15 +3296,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063BC715-3E9C-4849-95F5-AA11BEED25C2}">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
@@ -3357,92 +3316,92 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:23" ht="18">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="G8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A9" s="35">
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
+      <c r="B9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
       <c r="H9" s="5"/>
@@ -3462,95 +3421,137 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="14">
+        <v>47</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>3</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>103</v>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
+        <v>50</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G13" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:23" ht="15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="35"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3558,14 +3559,23 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3576,7 +3586,280 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>3</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
